--- a/analytics/modified_data/tbf_market_garden_sales_2023_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_sales_2023_clean.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1452" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1453" uniqueCount="59">
   <si>
     <t>sale_date</t>
   </si>
@@ -114,22 +114,22 @@
     <t>bean- fin de bagnol</t>
   </si>
   <si>
-    <t>pepper- sweet banana</t>
+    <t>cilantro</t>
   </si>
   <si>
     <t>pepper- anaheim</t>
   </si>
   <si>
-    <t>tomato- amish</t>
+    <t>pepper- jalapeno- early</t>
+  </si>
+  <si>
+    <t>pepper- sweet banana</t>
   </si>
   <si>
     <t>pepper- sweet- ca wonder</t>
   </si>
   <si>
-    <t>pepper- jalapeno- early</t>
-  </si>
-  <si>
-    <t>cilantro</t>
+    <t>tomato- amish</t>
   </si>
   <si>
     <t>carrot- touchon</t>
@@ -150,19 +150,19 @@
     <t>pumpkin- ct field</t>
   </si>
   <si>
-    <t>pepper- habanero</t>
+    <t xml:space="preserve">pepper- ghost </t>
   </si>
   <si>
-    <t xml:space="preserve">pepper- ghost </t>
+    <t>pepper- habanero</t>
   </si>
   <si>
     <t>sweet corn- ornamental- glas gm</t>
   </si>
   <si>
-    <t>tomato-jalapeno salsa</t>
+    <t>tomato sauce</t>
   </si>
   <si>
-    <t>tomato sauce</t>
+    <t>tomato-jalapeno salsa</t>
   </si>
   <si>
     <t>sale_item_code</t>
@@ -177,16 +177,19 @@
     <t>pound</t>
   </si>
   <si>
-    <t>unit</t>
+    <t>bunch</t>
   </si>
   <si>
-    <t>bunch</t>
+    <t>unit</t>
   </si>
   <si>
     <t>sale_unit_code</t>
   </si>
   <si>
     <t>sale_value_usd</t>
+  </si>
+  <si>
+    <t>sale_code</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -277,6 +280,9 @@
       <c r="L1" t="s">
         <v>57</v>
       </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -313,6 +319,9 @@
       <c r="L2" s="2">
         <v>5</v>
       </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -349,6 +358,9 @@
       <c r="L3" s="2">
         <v>6</v>
       </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -374,7 +386,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -383,7 +395,10 @@
         <v>54</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -404,13 +419,13 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -420,6 +435,9 @@
       </c>
       <c r="L5" s="2">
         <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -440,10 +458,10 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -455,7 +473,10 @@
         <v>54</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +497,10 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
@@ -491,7 +512,10 @@
         <v>54</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -512,22 +536,25 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -548,13 +575,13 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
@@ -563,7 +590,10 @@
         <v>55</v>
       </c>
       <c r="L9" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -584,22 +614,25 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2">
         <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -620,22 +653,25 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
         <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +692,13 @@
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>55</v>
@@ -671,7 +707,10 @@
         <v>55</v>
       </c>
       <c r="L12" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -692,22 +731,25 @@
         <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +776,19 @@
         <v>35</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -764,22 +809,25 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2">
         <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -800,22 +848,25 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -836,13 +887,13 @@
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -852,6 +903,9 @@
       </c>
       <c r="L17" s="2">
         <v>2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +926,25 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -908,13 +965,13 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
@@ -923,7 +980,10 @@
         <v>55</v>
       </c>
       <c r="L19" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -950,16 +1010,19 @@
         <v>37</v>
       </c>
       <c r="I20" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -980,22 +1043,25 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1016,22 +1082,25 @@
         <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1052,22 +1121,25 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L23" s="2">
         <v>2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1088,22 +1160,25 @@
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1199,25 @@
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L25" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1160,22 +1238,25 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1196,22 +1277,25 @@
         <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M27" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -1234,21 +1318,24 @@
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I28" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1281,13 +1368,16 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1310,22 +1400,25 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L30" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1348,22 +1441,25 @@
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I31" s="2">
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1386,22 +1482,25 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1424,22 +1523,25 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L33" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="M33" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1462,23 +1564,26 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L34" s="2">
         <v>3</v>
       </c>
+      <c r="M34" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1509,13 +1614,16 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L35" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1538,22 +1646,25 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L36" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1576,22 +1687,25 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I37" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1614,22 +1728,25 @@
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I38" s="2">
         <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1652,22 +1769,25 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I39" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1690,22 +1810,25 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I40" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L40" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1728,22 +1851,25 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I41" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1772,16 +1898,19 @@
         <v>37</v>
       </c>
       <c r="I42" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L42" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M42" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1804,22 +1933,25 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I43" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1842,22 +1974,25 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L44" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M44" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1880,22 +2015,25 @@
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M45" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1918,21 +2056,24 @@
         <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I46" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1965,13 +2106,16 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L47" s="2">
         <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2000,16 +2144,19 @@
         <v>39</v>
       </c>
       <c r="I48" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L48" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2041,13 +2188,16 @@
         <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L49" s="2">
         <v>2</v>
+      </c>
+      <c r="M49" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2070,21 +2220,24 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I50" s="2">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L50" s="2">
+        <v>2</v>
+      </c>
+      <c r="M50" s="2">
         <v>5</v>
       </c>
     </row>
@@ -2117,13 +2270,16 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L51" s="2">
         <v>3</v>
+      </c>
+      <c r="M51" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2155,13 +2311,16 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L52" s="2">
         <v>3</v>
+      </c>
+      <c r="M52" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2184,22 +2343,25 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L53" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="M53" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2222,22 +2384,25 @@
         <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L54" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2260,22 +2425,25 @@
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L55" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2298,22 +2466,25 @@
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I56" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L56" s="2">
         <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -2342,16 +2513,19 @@
         <v>35</v>
       </c>
       <c r="I57" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L57" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="M57" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -2374,22 +2548,25 @@
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="2">
         <v>3</v>
       </c>
-      <c r="J58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
+      <c r="M58" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -2412,22 +2589,25 @@
         <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L59" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M59" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -2450,22 +2630,25 @@
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L60" s="2">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="M60" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -2488,21 +2671,24 @@
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I61" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L61" s="2">
+        <v>3</v>
+      </c>
+      <c r="M61" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2526,22 +2712,25 @@
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I62" s="2">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L62" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M62" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2564,22 +2753,25 @@
         <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I63" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L63" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M63" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2602,22 +2794,25 @@
         <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L64" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M64" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -2640,22 +2835,25 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L65" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2678,22 +2876,25 @@
         <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I66" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L66" s="2">
         <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2716,22 +2917,25 @@
         <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I67" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L67" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="M67" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -2754,22 +2958,25 @@
         <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I68" s="2">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>55</v>
+      </c>
+      <c r="K68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" s="2">
+        <v>5</v>
+      </c>
+      <c r="M68" s="2">
         <v>8</v>
-      </c>
-      <c r="J68" t="s">
-        <v>54</v>
-      </c>
-      <c r="K68" t="s">
-        <v>54</v>
-      </c>
-      <c r="L68" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2792,22 +2999,25 @@
         <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I69" s="2">
+        <v>55</v>
+      </c>
+      <c r="J69" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="2">
+        <v>10</v>
+      </c>
+      <c r="M69" s="2">
         <v>9</v>
-      </c>
-      <c r="J69" t="s">
-        <v>54</v>
-      </c>
-      <c r="K69" t="s">
-        <v>54</v>
-      </c>
-      <c r="L69" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2830,22 +3040,25 @@
         <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I70" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L70" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -2868,22 +3081,25 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I71" s="2">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L71" s="2">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="M71" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -2906,22 +3122,25 @@
         <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I72" s="2">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L72" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +3163,25 @@
         <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I73" s="2">
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L73" s="2">
         <v>2</v>
+      </c>
+      <c r="M73" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -2982,22 +3204,25 @@
         <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I74" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L74" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M74" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -3020,22 +3245,25 @@
         <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I75" s="2">
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L75" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M75" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -3058,22 +3286,25 @@
         <v>28</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L76" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3096,22 +3327,25 @@
         <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I77" s="2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L77" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="M77" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
@@ -3134,10 +3368,10 @@
         <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I78" s="2">
         <v>1</v>
@@ -3150,6 +3384,9 @@
       </c>
       <c r="L78" s="2">
         <v>2</v>
+      </c>
+      <c r="M78" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -3172,22 +3409,25 @@
         <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I79" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L79" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M79" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -3210,22 +3450,25 @@
         <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I80" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L80" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M80" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3491,25 @@
         <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I81" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L81" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M81" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -3286,22 +3532,25 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I82" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L82" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="M82" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -3324,13 +3573,13 @@
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I83" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J83" t="s">
         <v>53</v>
@@ -3339,7 +3588,10 @@
         <v>53</v>
       </c>
       <c r="L83" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M83" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -3362,22 +3614,25 @@
         <v>28</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I84" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L84" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M84" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="85">
@@ -3413,6 +3668,9 @@
       <c r="L85" s="2">
         <v>9</v>
       </c>
+      <c r="M85" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -3434,21 +3692,24 @@
         <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3478,16 +3739,19 @@
         <v>39</v>
       </c>
       <c r="I87" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L87" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -3510,22 +3774,25 @@
         <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H88" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I88" s="2">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K88" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L88" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="M88" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -3548,22 +3815,25 @@
         <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I89" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L89" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M89" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -3586,22 +3856,25 @@
         <v>28</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I90" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K90" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L90" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="M90" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -3624,22 +3897,25 @@
         <v>28</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L91" s="2">
         <v>2</v>
+      </c>
+      <c r="M91" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -3662,22 +3938,25 @@
         <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I92" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L92" s="2">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="M92" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -3700,22 +3979,25 @@
         <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I93" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L93" s="2">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="M93" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -3744,16 +4026,19 @@
         <v>35</v>
       </c>
       <c r="I94" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L94" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M94" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -3776,22 +4061,25 @@
         <v>28</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I95" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L95" s="2">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="M95" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -3814,22 +4102,25 @@
         <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I96" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L96" s="2">
         <v>0.5</v>
+      </c>
+      <c r="M96" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -3852,22 +4143,25 @@
         <v>28</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H97" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I97" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K97" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L97" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M97" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -3890,22 +4184,25 @@
         <v>28</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I98" s="2">
         <v>5</v>
       </c>
       <c r="J98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L98" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -3928,22 +4225,25 @@
         <v>28</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K99" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L99" s="2">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="M99" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -3966,22 +4266,25 @@
         <v>28</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I100" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K100" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L100" s="2">
         <v>1</v>
+      </c>
+      <c r="M100" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -4010,16 +4313,19 @@
         <v>37</v>
       </c>
       <c r="I101" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L101" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M101" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="102">
@@ -4042,22 +4348,25 @@
         <v>28</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L102" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M102" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="103">
@@ -4080,10 +4389,10 @@
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H103" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I103" s="2">
         <v>1</v>
@@ -4095,7 +4404,10 @@
         <v>53</v>
       </c>
       <c r="L103" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -4118,10 +4430,10 @@
         <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I104" s="2">
         <v>1</v>
@@ -4133,7 +4445,10 @@
         <v>53</v>
       </c>
       <c r="L104" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M104" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -4156,22 +4471,25 @@
         <v>28</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I105" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L105" s="2">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="M105" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -4194,22 +4512,25 @@
         <v>28</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I106" s="2">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L106" s="2">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="M106" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="107">
@@ -4232,22 +4553,25 @@
         <v>28</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I107" s="2">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K107" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L107" s="2">
         <v>2</v>
+      </c>
+      <c r="M107" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="108">
@@ -4270,13 +4594,13 @@
         <v>28</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I108" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>53</v>
@@ -4285,7 +4609,10 @@
         <v>53</v>
       </c>
       <c r="L108" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M108" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="109">
@@ -4308,13 +4635,13 @@
         <v>28</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I109" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="J109" t="s">
         <v>53</v>
@@ -4323,7 +4650,10 @@
         <v>53</v>
       </c>
       <c r="L109" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="M109" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -4346,22 +4676,25 @@
         <v>28</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I110" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L110" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M110" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="111">
@@ -4384,22 +4717,25 @@
         <v>28</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I111" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L111" s="2">
         <v>1</v>
+      </c>
+      <c r="M111" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -4422,22 +4758,25 @@
         <v>28</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H112" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I112" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L112" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M112" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="113">
@@ -4460,22 +4799,25 @@
         <v>28</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H113" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I113" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L113" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M113" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="114">
@@ -4498,22 +4840,25 @@
         <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H114" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I114" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L114" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M114" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="115">
@@ -4549,6 +4894,9 @@
       <c r="L115" s="2">
         <v>57</v>
       </c>
+      <c r="M115" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -4583,6 +4931,9 @@
       <c r="L116" s="2">
         <v>13</v>
       </c>
+      <c r="M116" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -4604,21 +4955,24 @@
         <v>28</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I117" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L117" s="2">
+        <v>2</v>
+      </c>
+      <c r="M117" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4642,22 +4996,25 @@
         <v>28</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H118" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I118" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L118" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M118" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -4686,16 +5043,19 @@
         <v>34</v>
       </c>
       <c r="I119" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L119" s="2">
         <v>1</v>
+      </c>
+      <c r="M119" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -4718,22 +5078,25 @@
         <v>28</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I120" s="2">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K120" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L120" s="2">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="M120" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -4762,16 +5125,19 @@
         <v>35</v>
       </c>
       <c r="I121" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K121" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L121" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M121" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="122">
@@ -4800,16 +5166,19 @@
         <v>35</v>
       </c>
       <c r="I122" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K122" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L122" s="2">
         <v>1</v>
+      </c>
+      <c r="M122" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -4832,22 +5201,25 @@
         <v>28</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I123" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L123" s="2">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="M123" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -4870,22 +5242,25 @@
         <v>28</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I124" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L124" s="2">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="M124" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -4908,22 +5283,25 @@
         <v>28</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I125" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K125" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L125" s="2">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="M125" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="126">
@@ -4946,22 +5324,25 @@
         <v>28</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I126" s="2">
         <v>5</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L126" s="2">
         <v>1</v>
+      </c>
+      <c r="M126" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -4984,22 +5365,25 @@
         <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H127" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I127" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K127" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L127" s="2">
         <v>1</v>
+      </c>
+      <c r="M127" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="128">
@@ -5028,16 +5412,19 @@
         <v>36</v>
       </c>
       <c r="I128" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L128" s="2">
         <v>1</v>
+      </c>
+      <c r="M128" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="129">
@@ -5060,22 +5447,25 @@
         <v>28</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I129" s="2">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K129" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L129" s="2">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="M129" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -5098,22 +5488,25 @@
         <v>28</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I130" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L130" s="2">
         <v>1</v>
+      </c>
+      <c r="M130" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -5136,22 +5529,25 @@
         <v>28</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H131" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I131" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L131" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="M131" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -5174,22 +5570,25 @@
         <v>28</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I132" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L132" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M132" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="133">
@@ -5212,13 +5611,13 @@
         <v>28</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I133" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>53</v>
@@ -5227,7 +5626,10 @@
         <v>53</v>
       </c>
       <c r="L133" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M133" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="134">
@@ -5250,13 +5652,13 @@
         <v>28</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H134" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I134" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>53</v>
@@ -5265,7 +5667,10 @@
         <v>53</v>
       </c>
       <c r="L134" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M134" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -5288,13 +5693,13 @@
         <v>28</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I135" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>53</v>
@@ -5303,7 +5708,10 @@
         <v>53</v>
       </c>
       <c r="L135" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M135" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="136">
@@ -5326,13 +5734,13 @@
         <v>28</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I136" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
@@ -5341,7 +5749,10 @@
         <v>53</v>
       </c>
       <c r="L136" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M136" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="137">
@@ -5364,22 +5775,25 @@
         <v>28</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I137" s="2">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L137" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M137" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="138">
@@ -5402,22 +5816,25 @@
         <v>28</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I138" s="2">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L138" s="2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="M138" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="139">
@@ -5440,22 +5857,25 @@
         <v>28</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H139" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I139" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L139" s="2">
         <v>1</v>
+      </c>
+      <c r="M139" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -5484,7 +5904,7 @@
         <v>41</v>
       </c>
       <c r="I140" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>53</v>
@@ -5493,7 +5913,10 @@
         <v>53</v>
       </c>
       <c r="L140" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M140" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="141">
@@ -5516,22 +5939,25 @@
         <v>28</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L141" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M141" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="142">
@@ -5554,22 +5980,25 @@
         <v>28</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L142" s="2">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="M142" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="143">
@@ -5605,6 +6034,9 @@
       <c r="L143" s="2">
         <v>19</v>
       </c>
+      <c r="M143" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -5639,6 +6071,9 @@
       <c r="L144" s="2">
         <v>9</v>
       </c>
+      <c r="M144" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -5660,21 +6095,24 @@
         <v>28</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I145" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L145" s="2">
+        <v>1</v>
+      </c>
+      <c r="M145" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5698,22 +6136,25 @@
         <v>28</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H146" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I146" s="2">
         <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L146" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M146" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -5736,22 +6177,25 @@
         <v>28</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H147" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I147" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L147" s="2">
         <v>1</v>
+      </c>
+      <c r="M147" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -5774,22 +6218,25 @@
         <v>28</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H148" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I148" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K148" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L148" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M148" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="149">
@@ -5818,16 +6265,19 @@
         <v>35</v>
       </c>
       <c r="I149" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J149" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K149" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L149" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M149" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -5850,22 +6300,25 @@
         <v>28</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I150" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L150" s="2">
         <v>1</v>
+      </c>
+      <c r="M150" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="151">
@@ -5888,22 +6341,25 @@
         <v>28</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H151" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I151" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L151" s="2">
         <v>1</v>
+      </c>
+      <c r="M151" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -5926,10 +6382,10 @@
         <v>28</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I152" s="2">
         <v>1</v>
@@ -5942,6 +6398,9 @@
       </c>
       <c r="L152" s="2">
         <v>2</v>
+      </c>
+      <c r="M152" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="153">
@@ -5964,13 +6423,13 @@
         <v>28</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I153" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>53</v>
@@ -5979,7 +6438,10 @@
         <v>53</v>
       </c>
       <c r="L153" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M153" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="154">
@@ -6002,13 +6464,13 @@
         <v>28</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H154" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>53</v>
@@ -6018,6 +6480,9 @@
       </c>
       <c r="L154" s="2">
         <v>2</v>
+      </c>
+      <c r="M154" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="155">
@@ -6040,22 +6505,25 @@
         <v>28</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I155" s="2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L155" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M155" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="156">
@@ -6078,22 +6546,25 @@
         <v>28</v>
       </c>
       <c r="G156" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H156" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I156" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L156" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M156" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -6122,15 +6593,18 @@
         <v>35</v>
       </c>
       <c r="I157" s="2">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K157" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L157" s="2">
+        <v>1</v>
+      </c>
+      <c r="M157" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6154,22 +6628,25 @@
         <v>28</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H158" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I158" s="2">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K158" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L158" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M158" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -6192,22 +6669,25 @@
         <v>28</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I159" s="2">
-        <v>0.75</v>
+        <v>11</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K159" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L159" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M159" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -6236,16 +6716,19 @@
         <v>37</v>
       </c>
       <c r="I160" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L160" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M160" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -6268,22 +6751,25 @@
         <v>28</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H161" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I161" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L161" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M161" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -6312,16 +6798,19 @@
         <v>37</v>
       </c>
       <c r="I162" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L162" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M162" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -6344,22 +6833,25 @@
         <v>28</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H163" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L163" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M163" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -6382,13 +6874,13 @@
         <v>28</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H164" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I164" s="2">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J164" t="s">
         <v>53</v>
@@ -6397,7 +6889,10 @@
         <v>53</v>
       </c>
       <c r="L164" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M164" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -6420,13 +6915,13 @@
         <v>28</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I165" s="2">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="J165" t="s">
         <v>53</v>
@@ -6435,7 +6930,10 @@
         <v>53</v>
       </c>
       <c r="L165" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M165" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="166">
@@ -6458,10 +6956,10 @@
         <v>28</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H166" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I166" s="2">
         <v>1</v>
@@ -6474,6 +6972,9 @@
       </c>
       <c r="L166" s="2">
         <v>2</v>
+      </c>
+      <c r="M166" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -6496,10 +6997,10 @@
         <v>28</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H167" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I167" s="2">
         <v>1</v>
@@ -6512,6 +7013,9 @@
       </c>
       <c r="L167" s="2">
         <v>2</v>
+      </c>
+      <c r="M167" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -6534,13 +7038,13 @@
         <v>28</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I168" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J168" t="s">
         <v>53</v>
@@ -6550,6 +7054,9 @@
       </c>
       <c r="L168" s="2">
         <v>2</v>
+      </c>
+      <c r="M168" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="169">
@@ -6572,22 +7079,25 @@
         <v>28</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H169" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I169" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L169" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="M169" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="170">
@@ -6610,22 +7120,25 @@
         <v>28</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H170" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I170" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L170" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M170" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -6648,22 +7161,25 @@
         <v>28</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H171" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I171" s="2">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L171" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M171" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="172">
@@ -6699,6 +7215,9 @@
       <c r="L172" s="2">
         <v>12</v>
       </c>
+      <c r="M172" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -6731,7 +7250,10 @@
         <v>43</v>
       </c>
       <c r="L173" s="2">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="M173" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -6765,7 +7287,10 @@
         <v>43</v>
       </c>
       <c r="L174" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="M174" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6801,6 +7326,9 @@
       <c r="L175" s="2">
         <v>7</v>
       </c>
+      <c r="M175" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -6835,6 +7363,9 @@
       <c r="L176" s="2">
         <v>20</v>
       </c>
+      <c r="M176" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -6844,30 +7375,35 @@
         <v>45213</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H177" t="s">
-        <v>43</v>
-      </c>
-      <c r="I177" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="I177" s="2">
+        <v>4</v>
+      </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K177" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L177" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="M177" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6888,22 +7424,25 @@
         <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I178" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L178" s="2">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M178" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -6924,22 +7463,25 @@
         <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I179" s="2">
         <v>5</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L179" s="2">
         <v>35</v>
+      </c>
+      <c r="M179" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6950,32 +7492,33 @@
         <v>45213</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H180" t="s">
-        <v>49</v>
-      </c>
-      <c r="I180" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I180" s="2"/>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K180" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L180" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="M180" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -7011,6 +7554,9 @@
       <c r="L181" s="2">
         <v>10</v>
       </c>
+      <c r="M181" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/analytics/modified_data/tbf_market_garden_sales_2023_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_sales_2023_clean.xlsx
@@ -120,13 +120,13 @@
     <t>pepper- anaheim</t>
   </si>
   <si>
-    <t>pepper- jalapeno- early</t>
+    <t>pepper- califonia wonder</t>
+  </si>
+  <si>
+    <t>pepper- jalapeno, early</t>
   </si>
   <si>
     <t>pepper- sweet banana</t>
-  </si>
-  <si>
-    <t>pepper- sweet- ca wonder</t>
   </si>
   <si>
     <t>tomato- amish</t>
@@ -147,7 +147,7 @@
     <t>.s</t>
   </si>
   <si>
-    <t>pumpkin- ct field</t>
+    <t>pumpkin- connecticut field</t>
   </si>
   <si>
     <t xml:space="preserve">pepper- ghost </t>
@@ -156,7 +156,7 @@
     <t>pepper- habanero</t>
   </si>
   <si>
-    <t>sweet corn- ornamental- glas gm</t>
+    <t>corn- ornamental, glass gem</t>
   </si>
   <si>
     <t>tomato sauce</t>
@@ -659,7 +659,7 @@
         <v>35</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
@@ -698,7 +698,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>55</v>
@@ -737,7 +737,7 @@
         <v>35</v>
       </c>
       <c r="I13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>55</v>
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="I15" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>55</v>
@@ -848,10 +848,10 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2">
         <v>4</v>
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="2">
         <v>15</v>
@@ -893,7 +893,7 @@
         <v>36</v>
       </c>
       <c r="I17" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -902,7 +902,7 @@
         <v>55</v>
       </c>
       <c r="L17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>16</v>
@@ -926,13 +926,13 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
         <v>55</v>
@@ -965,13 +965,13 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
@@ -1004,13 +1004,13 @@
         <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
         <v>55</v>
@@ -1043,13 +1043,13 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
         <v>55</v>
@@ -1058,7 +1058,7 @@
         <v>55</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="2">
         <v>20</v>
@@ -1097,7 +1097,7 @@
         <v>55</v>
       </c>
       <c r="L22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>21</v>
@@ -1127,7 +1127,7 @@
         <v>37</v>
       </c>
       <c r="I23" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
@@ -1693,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="I37" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>55</v>
@@ -1734,7 +1734,7 @@
         <v>35</v>
       </c>
       <c r="I38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>55</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="I39" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>55</v>
@@ -1784,7 +1784,7 @@
         <v>55</v>
       </c>
       <c r="L39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="2">
         <v>12</v>
@@ -1810,13 +1810,13 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I40" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J40" t="s">
         <v>55</v>
@@ -1851,13 +1851,13 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I41" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>55</v>
@@ -1892,13 +1892,13 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>55</v>
@@ -1907,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="L42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" s="2">
         <v>15</v>
@@ -1933,13 +1933,13 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>55</v>
@@ -2466,10 +2466,10 @@
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I56" s="2">
         <v>5</v>
@@ -2507,10 +2507,10 @@
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I57" s="2">
         <v>28</v>
@@ -2882,7 +2882,7 @@
         <v>35</v>
       </c>
       <c r="I66" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>55</v>
@@ -2923,7 +2923,7 @@
         <v>35</v>
       </c>
       <c r="I67" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
         <v>55</v>
@@ -2964,7 +2964,7 @@
         <v>35</v>
       </c>
       <c r="I68" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J68" t="s">
         <v>55</v>
@@ -2973,7 +2973,7 @@
         <v>55</v>
       </c>
       <c r="L68" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M68" s="2">
         <v>8</v>
@@ -2999,13 +2999,13 @@
         <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I69" s="2">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
         <v>55</v>
@@ -3014,7 +3014,7 @@
         <v>55</v>
       </c>
       <c r="L69" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M69" s="2">
         <v>9</v>
@@ -3046,7 +3046,7 @@
         <v>36</v>
       </c>
       <c r="I70" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J70" t="s">
         <v>55</v>
@@ -3055,7 +3055,7 @@
         <v>55</v>
       </c>
       <c r="L70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" s="2">
         <v>10</v>
@@ -3087,7 +3087,7 @@
         <v>36</v>
       </c>
       <c r="I71" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
         <v>55</v>
@@ -3096,7 +3096,7 @@
         <v>55</v>
       </c>
       <c r="L71" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M71" s="2">
         <v>11</v>
@@ -3122,13 +3122,13 @@
         <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I72" s="2">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="J72" t="s">
         <v>55</v>
@@ -3137,7 +3137,7 @@
         <v>55</v>
       </c>
       <c r="L72" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M72" s="2">
         <v>12</v>
@@ -3178,7 +3178,7 @@
         <v>55</v>
       </c>
       <c r="L73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" s="2">
         <v>13</v>
@@ -3210,7 +3210,7 @@
         <v>37</v>
       </c>
       <c r="I74" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J74" t="s">
         <v>55</v>
@@ -3219,7 +3219,7 @@
         <v>55</v>
       </c>
       <c r="L74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" s="2">
         <v>14</v>
@@ -3985,7 +3985,7 @@
         <v>35</v>
       </c>
       <c r="I93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>55</v>
@@ -4026,7 +4026,7 @@
         <v>35</v>
       </c>
       <c r="I94" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>55</v>
@@ -4035,7 +4035,7 @@
         <v>55</v>
       </c>
       <c r="L94" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" s="2">
         <v>9</v>
@@ -4067,7 +4067,7 @@
         <v>35</v>
       </c>
       <c r="I95" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>55</v>
@@ -4076,7 +4076,7 @@
         <v>55</v>
       </c>
       <c r="L95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" s="2">
         <v>10</v>
@@ -4102,13 +4102,13 @@
         <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I96" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>55</v>
@@ -4117,7 +4117,7 @@
         <v>55</v>
       </c>
       <c r="L96" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M96" s="2">
         <v>11</v>
@@ -4149,7 +4149,7 @@
         <v>36</v>
       </c>
       <c r="I97" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>55</v>
@@ -4158,7 +4158,7 @@
         <v>55</v>
       </c>
       <c r="L97" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M97" s="2">
         <v>12</v>
@@ -4199,7 +4199,7 @@
         <v>55</v>
       </c>
       <c r="L98" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M98" s="2">
         <v>13</v>
@@ -4225,13 +4225,13 @@
         <v>28</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I99" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J99" t="s">
         <v>55</v>
@@ -4240,7 +4240,7 @@
         <v>55</v>
       </c>
       <c r="L99" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M99" s="2">
         <v>14</v>
@@ -4272,7 +4272,7 @@
         <v>37</v>
       </c>
       <c r="I100" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>55</v>
@@ -4281,7 +4281,7 @@
         <v>55</v>
       </c>
       <c r="L100" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M100" s="2">
         <v>15</v>
@@ -4313,7 +4313,7 @@
         <v>37</v>
       </c>
       <c r="I101" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
         <v>55</v>
@@ -4354,7 +4354,7 @@
         <v>37</v>
       </c>
       <c r="I102" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
         <v>55</v>
@@ -5125,7 +5125,7 @@
         <v>35</v>
       </c>
       <c r="I121" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>55</v>
@@ -5134,7 +5134,7 @@
         <v>55</v>
       </c>
       <c r="L121" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M121" s="2">
         <v>5</v>
@@ -5166,7 +5166,7 @@
         <v>35</v>
       </c>
       <c r="I122" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>55</v>
@@ -5201,13 +5201,13 @@
         <v>28</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I123" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>55</v>
@@ -5242,13 +5242,13 @@
         <v>28</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I124" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
         <v>55</v>
@@ -5289,7 +5289,7 @@
         <v>36</v>
       </c>
       <c r="I125" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J125" t="s">
         <v>55</v>
@@ -5298,7 +5298,7 @@
         <v>55</v>
       </c>
       <c r="L125" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M125" s="2">
         <v>9</v>
@@ -5330,7 +5330,7 @@
         <v>36</v>
       </c>
       <c r="I126" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J126" t="s">
         <v>55</v>
@@ -5365,13 +5365,13 @@
         <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I127" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>55</v>
@@ -5380,7 +5380,7 @@
         <v>55</v>
       </c>
       <c r="L127" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M127" s="2">
         <v>11</v>
@@ -5406,13 +5406,13 @@
         <v>28</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I128" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J128" t="s">
         <v>55</v>
@@ -5453,7 +5453,7 @@
         <v>37</v>
       </c>
       <c r="I129" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J129" t="s">
         <v>55</v>
@@ -5462,7 +5462,7 @@
         <v>55</v>
       </c>
       <c r="L129" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M129" s="2">
         <v>13</v>
@@ -5494,7 +5494,7 @@
         <v>37</v>
       </c>
       <c r="I130" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J130" t="s">
         <v>55</v>
@@ -6259,10 +6259,10 @@
         <v>28</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I149" s="2">
         <v>7</v>
@@ -6300,10 +6300,10 @@
         <v>28</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I150" s="2">
         <v>3</v>
@@ -6341,10 +6341,10 @@
         <v>28</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I151" s="2">
         <v>5</v>
@@ -6593,7 +6593,7 @@
         <v>35</v>
       </c>
       <c r="I157" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>55</v>
@@ -6634,7 +6634,7 @@
         <v>35</v>
       </c>
       <c r="I158" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>55</v>
@@ -6643,7 +6643,7 @@
         <v>55</v>
       </c>
       <c r="L158" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M158" s="2">
         <v>2</v>
@@ -6669,13 +6669,13 @@
         <v>28</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I159" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
         <v>55</v>
@@ -6710,13 +6710,13 @@
         <v>28</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I160" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J160" t="s">
         <v>55</v>
@@ -6751,13 +6751,13 @@
         <v>28</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I161" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J161" t="s">
         <v>55</v>
@@ -6766,7 +6766,7 @@
         <v>55</v>
       </c>
       <c r="L161" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M161" s="2">
         <v>5</v>
@@ -6798,7 +6798,7 @@
         <v>37</v>
       </c>
       <c r="I162" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J162" t="s">
         <v>55</v>
